--- a/python/src/jobanalysis/degree/test/degree.xlsx
+++ b/python/src/jobanalysis/degree/test/degree.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="503">
   <si>
     <t>ad0760685852e280 (2, 2) [('DE_LEVEL', 'BS_LEVEL')]</t>
   </si>
@@ -1533,6 +1533,9 @@
   </si>
   <si>
     <t>5c5caf64fc953759 None None</t>
+  </si>
+  <si>
+    <t>1+D1:D50</t>
   </si>
 </sst>
 </file>
@@ -3197,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,8 +3220,8 @@
       <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,7 +3470,7 @@
         <v>422</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,7 +3568,7 @@
         <v>429</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3621,7 +3624,7 @@
         <v>433</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3638,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3649,7 +3652,7 @@
         <v>435</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3663,7 +3666,7 @@
         <v>436</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3803,7 +3806,7 @@
         <v>446</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3960,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,7 +4198,7 @@
         <v>473</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4321,7 +4324,7 @@
         <v>482</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4335,7 +4338,7 @@
         <v>483</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4604,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python/src/jobanalysis/degree/test/degree.xlsx
+++ b/python/src/jobanalysis/degree/test/degree.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="15525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="15525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20" sheetId="1" r:id="rId1"/>
     <sheet name="40" sheetId="2" r:id="rId2"/>
     <sheet name="100" sheetId="3" r:id="rId3"/>
     <sheet name="0610_100" sheetId="4" r:id="rId4"/>
+    <sheet name="0610_major" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="587">
   <si>
     <t>ad0760685852e280 (2, 2) [('DE_LEVEL', 'BS_LEVEL')]</t>
   </si>
@@ -1535,7 +1536,259 @@
     <t>5c5caf64fc953759 None None</t>
   </si>
   <si>
-    <t>1+D1:D50</t>
+    <t>a025aef939db0165 None None</t>
+  </si>
+  <si>
+    <t>b7821f2d89d2811a (4, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>41568d3481f81a46 None None</t>
+  </si>
+  <si>
+    <t>abf71232fa9a55ac (5, 4) [('MAJOR', 'MAJOR_DESIGN'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>2af385c2f96e33ff None None</t>
+  </si>
+  <si>
+    <t>e079f254e645a718 (2, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>08a946e5f1132677 (2, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>363276e259d67f7e (8, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>d8ea4aeaf26d100f None None</t>
+  </si>
+  <si>
+    <t>c19a1febba281098 (1, 3) ['DEGREE', ['$NA$', '$NA$', [u'within']], 'MAJOR_GENERAL']</t>
+  </si>
+  <si>
+    <t>b17ff5312ff66432 (2, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>4904b80904e2e191 (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>6523c92f00c17e93 (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>8bf39f3caab754c1 (3, 2) [('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>ad55f12b0bf3794c (2, 3) [('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>5ae9211c6931177b None None</t>
+  </si>
+  <si>
+    <t>5e14526c08d48012 None None</t>
+  </si>
+  <si>
+    <t>f7242545efa6ba95 (9, 2) [('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>b91aeb92f1cf3dab (2, 6) [('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>0976e557138e2c46 (2, 2) [('MAJOR', 'MAJOR_EE')]</t>
+  </si>
+  <si>
+    <t>db02dcfc6ba5950f None None</t>
+  </si>
+  <si>
+    <t>57394fbae556be32 (2, 8) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_MATH'), ('MAJOR', 'MAJOR_OTHERS'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>cd66fa99e850a2f0 (3, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_MATH')]</t>
+  </si>
+  <si>
+    <t>5abb499969a8fa0b (3, 6) [('MAJOR', 'MAJOR_OTHERS'), ('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>6cd49dc67bdc4df2 (2, 2) [('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>ed7f8aaa7ca91c64 None None</t>
+  </si>
+  <si>
+    <t>265e0f204f1311d6 (8, 2) ['MAJOR_CS', 'DEGREE']</t>
+  </si>
+  <si>
+    <t>90677f541902a0ed None None</t>
+  </si>
+  <si>
+    <t>f602d926c7a15b99 (2, 6) [('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_STAT'), ('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>15d3c94cc98d53b9 (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>76034f73cc8fe01e None None</t>
+  </si>
+  <si>
+    <t>44aa3826705667ed (4, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_CE'), ('MAJOR', 'MAJOR_INFO')]</t>
+  </si>
+  <si>
+    <t>55712b7e33733604 None None</t>
+  </si>
+  <si>
+    <t>0cc10ebadbf754e1 (6, 2) [('MAJOR', 'MAJOR_INFO')]</t>
+  </si>
+  <si>
+    <t>05b237d79ef307dc None None</t>
+  </si>
+  <si>
+    <t>4b17e65d15dcf232 None None</t>
+  </si>
+  <si>
+    <t>b214b2fb05668367 None None</t>
+  </si>
+  <si>
+    <t>7caff9a6de551bfb (3, 4) [('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>9674827164ec8d63 None None</t>
+  </si>
+  <si>
+    <t>b5853ea1c2f9c239 None None</t>
+  </si>
+  <si>
+    <t>ea656528f9cd64c0 None None</t>
+  </si>
+  <si>
+    <t>a533ca312c70292c (9, 4) [('MAJOR', 'MAJOR_OTHERS'), ('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>2b4c53c5a3dafeee (1, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>69106c38404a72c7 (2, 8) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_MATH')]</t>
+  </si>
+  <si>
+    <t>4484c1ab2e555826 None None</t>
+  </si>
+  <si>
+    <t>ade9ab50a8f797ea None None</t>
+  </si>
+  <si>
+    <t>8424bc65784aa0a2 (4, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>713c4a73e207816d None None</t>
+  </si>
+  <si>
+    <t>9281530ef8e0889d None None</t>
+  </si>
+  <si>
+    <t>149c85ed3b4f8bcb (2, 3) [('MAJOR', 'MAJOR_INFO')]</t>
+  </si>
+  <si>
+    <t>f9bffacf6b7f3221 (6, 6) [('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_MATH'), ('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>8034e6d5cb562370 None None</t>
+  </si>
+  <si>
+    <t>660714cb45cd63e8 (2, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_OTHERS')]</t>
+  </si>
+  <si>
+    <t>de8d073f14aaf138 (4, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>0e6339a857e4eb14 None None</t>
+  </si>
+  <si>
+    <t>fc32e3b5666fd7f7 (1, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>a2a90ea443e20422 (5, 2) [('MAJOR', 'MAJOR_DESIGN')]</t>
+  </si>
+  <si>
+    <t>4c32bee6eab09e7a None None</t>
+  </si>
+  <si>
+    <t>717b8c96981262ff None None</t>
+  </si>
+  <si>
+    <t>c41533a7cccd408d (2, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>1f5279632bbd0e2c None None</t>
+  </si>
+  <si>
+    <t>687435beadf7346e None None</t>
+  </si>
+  <si>
+    <t>f31133979edde5df (2, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>71257228efa57432 (2, 3) ['MAJOR_INFO', u'or', u'related']</t>
+  </si>
+  <si>
+    <t>eb691a7d310b3c21 None None</t>
+  </si>
+  <si>
+    <t>85a726c4ed6c4d4e (2, 3) [('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>3ac3524c0d655069 (4, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO')]</t>
+  </si>
+  <si>
+    <t>1e75966249424097 (11, 2) ['MAJOR_CS', 'DEGREE']</t>
+  </si>
+  <si>
+    <t>7dcd658611c0d65b (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>7a214b8f3e7f1711 None None</t>
+  </si>
+  <si>
+    <t>1e2335cfdf3c2a17 (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>fe1d20f8c8eeadd5 (6, 3) ['MAJOR_OTHERS', 'OR', 'MAJOR_GENERAL']</t>
+  </si>
+  <si>
+    <t>3fe7dcad94a7dffd (6, 4) [('MAJOR', 'MAJOR_STAT'), ('MAJOR', 'MAJOR_MATH')]</t>
+  </si>
+  <si>
+    <t>336036d8129d6292 None None</t>
+  </si>
+  <si>
+    <t>08a40757d89b658d (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>106314177a40ca3a (4, 4) [('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>937477f8c8850d5b (13, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO')]</t>
+  </si>
+  <si>
+    <t>bade44188ce830fe (3, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_CE'), ('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>bac5e20e18a42738 None None</t>
+  </si>
+  <si>
+    <t>817fdd95ffdbe22d (2, 6) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_INFO'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>08976ad96f103fe2 (2, 2) [('MAJOR', 'MAJOR_CS')]</t>
+  </si>
+  <si>
+    <t>1923b89f21b4a695 None None</t>
+  </si>
+  <si>
+    <t>33a25d7bba6a0774 (2, 4) [('MAJOR', 'MAJOR_CS'), ('MAJOR', 'MAJOR_RELATED')]</t>
+  </si>
+  <si>
+    <t>b575fca32f541272 (8, 3) [('MAJOR', 'MAJOR_GENERAL')]</t>
+  </si>
+  <si>
+    <t>ada20f5da1071f1a (6, 4) [('MAJOR', 'MAJOR_GENERAL'), ('MAJOR', 'MAJOR_CS')]</t>
   </si>
 </sst>
 </file>
@@ -3200,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,8 +3473,8 @@
       <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>502</v>
+      <c r="D1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,7 +4860,943 @@
         <v>1</v>
       </c>
       <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="123.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1">
         <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>387</v>
+      </c>
+      <c r="B84" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>393</v>
+      </c>
+      <c r="B90" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>396</v>
+      </c>
+      <c r="B93" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>397</v>
+      </c>
+      <c r="B94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>398</v>
+      </c>
+      <c r="B95" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>399</v>
+      </c>
+      <c r="B96" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>401</v>
+      </c>
+      <c r="B98" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
